--- a/data/trans_orig/LAWTONB_2R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>89061</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77452</v>
+        <v>77930</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97632</v>
+        <v>98204</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6904463007337874</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6004472285672351</v>
+        <v>0.6041497578109548</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7568911274356566</v>
+        <v>0.7613238124489818</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -765,19 +765,19 @@
         <v>159993</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142823</v>
+        <v>142516</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>174511</v>
+        <v>174719</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5877522504321742</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5246771212601009</v>
+        <v>0.5235465485634915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6410844121001524</v>
+        <v>0.641847244438736</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>255</v>
@@ -786,19 +786,19 @@
         <v>249055</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>231129</v>
+        <v>228509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>268150</v>
+        <v>268158</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6207693996072643</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5760903888142624</v>
+        <v>0.5695600410463456</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6683638713964357</v>
+        <v>0.6683840255631652</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>15346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8811</v>
+        <v>9648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24082</v>
+        <v>23967</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1189693389935508</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0683074163152594</v>
+        <v>0.07479268760238289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1866982128866308</v>
+        <v>0.1858044819087686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -836,19 +836,19 @@
         <v>48035</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36967</v>
+        <v>36440</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62481</v>
+        <v>62232</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1764607804866791</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1358017290912005</v>
+        <v>0.1338667237976265</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2295306350080854</v>
+        <v>0.2286156173439565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -857,19 +857,19 @@
         <v>63381</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49300</v>
+        <v>49248</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77894</v>
+        <v>78817</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1579767154946514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1228800967092031</v>
+        <v>0.1227511055757307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1941500199810589</v>
+        <v>0.1964510566382392</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>9298</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4854</v>
+        <v>4668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16400</v>
+        <v>16699</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07208578128009908</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03763419322352531</v>
+        <v>0.0361912979260708</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1271432553239903</v>
+        <v>0.129460155888426</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -907,19 +907,19 @@
         <v>24726</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16271</v>
+        <v>16123</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34946</v>
+        <v>35777</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09083293609160796</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05977360750943098</v>
+        <v>0.05922941239101238</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1283776264573412</v>
+        <v>0.1314294749378307</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -928,19 +928,19 @@
         <v>34024</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23552</v>
+        <v>23750</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>46421</v>
+        <v>46081</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08480554107503052</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05870299256530841</v>
+        <v>0.05919645160716428</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1157048607128591</v>
+        <v>0.1148576140460461</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>6314</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2690</v>
+        <v>2615</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12096</v>
+        <v>12508</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04894888919812777</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02085781030938657</v>
+        <v>0.02027147307244502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09377404504152079</v>
+        <v>0.09696424696982839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -978,19 +978,19 @@
         <v>18574</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11511</v>
+        <v>11643</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28801</v>
+        <v>29234</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06823469542858625</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04228645639793991</v>
+        <v>0.04277052471920755</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1058046982134768</v>
+        <v>0.1073940544773764</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -999,19 +999,19 @@
         <v>24888</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16485</v>
+        <v>17066</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35565</v>
+        <v>36452</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06203411867265195</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04108788530569023</v>
+        <v>0.04253766012758549</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08864649647321736</v>
+        <v>0.09085661106534329</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>8971</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4383</v>
+        <v>4564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15191</v>
+        <v>16093</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06954968979443488</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03397843651568373</v>
+        <v>0.03538339830828711</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1177716429912028</v>
+        <v>0.1247570412649847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1049,19 +1049,19 @@
         <v>20884</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12702</v>
+        <v>12733</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31309</v>
+        <v>31838</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07671933756095251</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04666179977198873</v>
+        <v>0.04677734392884386</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1150181139290052</v>
+        <v>0.1169621180316939</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -1070,19 +1070,19 @@
         <v>29855</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20221</v>
+        <v>20553</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>41981</v>
+        <v>41845</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07441422515040183</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05040061973098421</v>
+        <v>0.05122783959288355</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1046368923709529</v>
+        <v>0.1042982413868248</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>110654</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99353</v>
+        <v>97380</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121882</v>
+        <v>121698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.680715058470545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6111964589779123</v>
+        <v>0.5990568742658795</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7497871675442461</v>
+        <v>0.7486560253032557</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>144</v>
@@ -1195,19 +1195,19 @@
         <v>144326</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129842</v>
+        <v>131749</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157479</v>
+        <v>156307</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7088822610500528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6377426042979502</v>
+        <v>0.6471074744410716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7734857676364204</v>
+        <v>0.7677250809240329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>260</v>
@@ -1216,19 +1216,19 @@
         <v>254981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>236793</v>
+        <v>237128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>272542</v>
+        <v>271487</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.696377283501496</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6467050760519816</v>
+        <v>0.647620834529445</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7443391244842092</v>
+        <v>0.7414574593821595</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>28324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19777</v>
+        <v>20085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38506</v>
+        <v>38738</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1742430255367067</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1216617532177308</v>
+        <v>0.1235579577291511</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.236882719049984</v>
+        <v>0.2383058983962439</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -1266,19 +1266,19 @@
         <v>30269</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20993</v>
+        <v>20869</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41399</v>
+        <v>41790</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1486728315874408</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.103111900723784</v>
+        <v>0.1025018599009548</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2033403816333954</v>
+        <v>0.2052561316867762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -1287,19 +1287,19 @@
         <v>58594</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45014</v>
+        <v>46173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73639</v>
+        <v>73637</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1600248535124168</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1229366235059445</v>
+        <v>0.1261031107039718</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2011150101060037</v>
+        <v>0.2011092623796882</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>10713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5422</v>
+        <v>6078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19237</v>
+        <v>18688</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06590085262274495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03335684875724821</v>
+        <v>0.03738887724248635</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1183393694151791</v>
+        <v>0.1149666350619052</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1337,19 +1337,19 @@
         <v>20479</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12910</v>
+        <v>12943</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31461</v>
+        <v>30284</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1005842047687008</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06340824391660066</v>
+        <v>0.06357256888496819</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1545235668347675</v>
+        <v>0.1487469643393157</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -1358,19 +1358,19 @@
         <v>31191</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20609</v>
+        <v>21826</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42754</v>
+        <v>43464</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08518634839053836</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05628487113232402</v>
+        <v>0.05960906877125951</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1167654710061567</v>
+        <v>0.1187033360689755</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>8215</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4376</v>
+        <v>3692</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15314</v>
+        <v>15006</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05053871636289276</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0269203624899463</v>
+        <v>0.0227126334004532</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09420648961562522</v>
+        <v>0.09231056847493416</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5561</v>
+        <v>6347</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005483796520801011</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02731353851457629</v>
+        <v>0.03117425149951634</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1429,19 +1429,19 @@
         <v>9332</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4588</v>
+        <v>4667</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16691</v>
+        <v>16564</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02548616485990176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01252962940989137</v>
+        <v>0.01274470946202457</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04558549888356991</v>
+        <v>0.04523669271231363</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>4649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10504</v>
+        <v>10332</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02860234700711055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01065226724701813</v>
+        <v>0.01058286067331583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06461810003123582</v>
+        <v>0.0635572312398611</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1479,19 +1479,19 @@
         <v>7406</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3206</v>
+        <v>3153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14685</v>
+        <v>15138</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03637690607300468</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01574444379028809</v>
+        <v>0.01548887842410124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07212917355350897</v>
+        <v>0.07435129633960581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1500,19 +1500,19 @@
         <v>12056</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6059</v>
+        <v>6273</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20180</v>
+        <v>20664</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03292534973564711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01654848701304481</v>
+        <v>0.01713129885896478</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05511475458178915</v>
+        <v>0.05643574351883215</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>120253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110008</v>
+        <v>109927</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128486</v>
+        <v>128075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8298140774997951</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7591181765352647</v>
+        <v>0.7585598145856496</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.88662319007548</v>
+        <v>0.8837848117984192</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -1625,19 +1625,19 @@
         <v>104335</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>91424</v>
+        <v>91473</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114044</v>
+        <v>114691</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7142968092120816</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6259060404704606</v>
+        <v>0.6262368078817466</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7807679106670227</v>
+        <v>0.7851962361792705</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>223</v>
@@ -1646,19 +1646,19 @@
         <v>224589</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>208207</v>
+        <v>209141</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>238900</v>
+        <v>237664</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7718270165046009</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.715525617265108</v>
+        <v>0.7187357767170737</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8210088922522742</v>
+        <v>0.8167599435958776</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>12701</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7092</v>
+        <v>6544</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20983</v>
+        <v>20062</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08764122273684195</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04893939347795421</v>
+        <v>0.04515553898178659</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1447938036137307</v>
+        <v>0.1384405886482763</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1696,19 +1696,19 @@
         <v>19290</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11404</v>
+        <v>11912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29467</v>
+        <v>29249</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1320607402925819</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07807240538433208</v>
+        <v>0.08154938120999891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2017378233145551</v>
+        <v>0.2002428944821702</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -1717,19 +1717,19 @@
         <v>31990</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22461</v>
+        <v>23038</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43953</v>
+        <v>44540</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1099388178242403</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07718811690059255</v>
+        <v>0.07917296809474986</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1510489466064617</v>
+        <v>0.1530655157506622</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>5362</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1732</v>
+        <v>1751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11878</v>
+        <v>12485</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03700215326820733</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0119489967004922</v>
+        <v>0.01208563426233169</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08196595206484221</v>
+        <v>0.08615457366835347</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -1767,19 +1767,19 @@
         <v>12483</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6881</v>
+        <v>6623</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21350</v>
+        <v>21735</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08545996987797691</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0471086057844204</v>
+        <v>0.04533904241159931</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1461656755537119</v>
+        <v>0.1488040205441404</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -1788,19 +1788,19 @@
         <v>17845</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10462</v>
+        <v>10791</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29272</v>
+        <v>28293</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06132688332022078</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03595237009909428</v>
+        <v>0.03708518567912759</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1005963051384883</v>
+        <v>0.09723233876436919</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>3839</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8873</v>
+        <v>9059</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02649130779538144</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006869113436778372</v>
+        <v>0.006968792129187392</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06122839922138083</v>
+        <v>0.06250976480688587</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1838,19 +1838,19 @@
         <v>3134</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8405</v>
+        <v>8366</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02145343702554351</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0</v>
+        <v>0.005847129802298661</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05754395828461342</v>
+        <v>0.05727413915844225</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1859,19 +1859,19 @@
         <v>6973</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3065</v>
+        <v>3039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13154</v>
+        <v>14522</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02396241039374881</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01053489813627689</v>
+        <v>0.01044470040712295</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0452063045503624</v>
+        <v>0.04990514838812644</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>2761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6740</v>
+        <v>7739</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01905123869977414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006010184202439978</v>
+        <v>0.0061579556759809</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04650839229635056</v>
+        <v>0.0534017653820657</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1909,19 +1909,19 @@
         <v>6826</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2321</v>
+        <v>2384</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13656</v>
+        <v>13763</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04672904359181611</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01589210856374731</v>
+        <v>0.01631788526906856</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09348990159367904</v>
+        <v>0.09422207649649285</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1930,19 +1930,19 @@
         <v>9586</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4357</v>
+        <v>4338</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17195</v>
+        <v>16549</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03294487195718927</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01497493055937912</v>
+        <v>0.01490645814266863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05909108162302617</v>
+        <v>0.05687181513055974</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>37731</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30954</v>
+        <v>30939</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42330</v>
+        <v>42836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7646813514660453</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6273434082441862</v>
+        <v>0.6270288579553897</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8578911659480056</v>
+        <v>0.8681364616345746</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2055,19 +2055,19 @@
         <v>27227</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20910</v>
+        <v>20445</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32675</v>
+        <v>32605</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6939457446561726</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5329540525813442</v>
+        <v>0.5210936404405597</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8328082169292949</v>
+        <v>0.8310239758940327</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -2076,19 +2076,19 @@
         <v>64957</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56184</v>
+        <v>56031</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72659</v>
+        <v>72233</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7333490811161426</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6342998777446686</v>
+        <v>0.6325740301184379</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8203037114451636</v>
+        <v>0.8154925692379797</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>9731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5475</v>
+        <v>5238</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16484</v>
+        <v>16537</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1972095618157071</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1109592501418417</v>
+        <v>0.1061520897157958</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3340760467240155</v>
+        <v>0.3351584152444639</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2126,19 +2126,19 @@
         <v>6287</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2335</v>
+        <v>2891</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12135</v>
+        <v>12015</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1602320562285646</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0595160533021609</v>
+        <v>0.07368744415848719</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3092804874264702</v>
+        <v>0.3062233853550392</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2147,19 +2147,19 @@
         <v>16017</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9512</v>
+        <v>10256</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23599</v>
+        <v>25287</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1808304105767064</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1073827059542646</v>
+        <v>0.1157866746048644</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2664281301368812</v>
+        <v>0.2854820208815257</v>
       </c>
     </row>
     <row r="24">
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5191</v>
+        <v>4993</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01853157227974016</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1052114447413242</v>
+        <v>0.1011862966039531</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2197,19 +2197,19 @@
         <v>3349</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9067</v>
+        <v>8956</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08534550826892412</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0246259163867849</v>
+        <v>0.02456890536007318</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2310915366126972</v>
+        <v>0.2282627602952437</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2218,19 +2218,19 @@
         <v>4263</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>961</v>
+        <v>1098</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9482</v>
+        <v>9578</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04812674223680374</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01084455017713785</v>
+        <v>0.01239449586386568</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1070486057347547</v>
+        <v>0.1081313096472858</v>
       </c>
     </row>
     <row r="25">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5563</v>
+        <v>4476</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01957751443850742</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1127387303707172</v>
+        <v>0.09071714806333703</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6503</v>
+        <v>6296</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03364328959593441</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.165751844333801</v>
+        <v>0.1604783255047342</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8073</v>
+        <v>7912</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02580793628387338</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09114431082655133</v>
+        <v>0.08932144622059164</v>
       </c>
     </row>
     <row r="26">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4761</v>
+        <v>6227</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02683340125040422</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1213445155949316</v>
+        <v>0.158703080598468</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4687</v>
+        <v>5938</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01188582978647378</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05291583218577806</v>
+        <v>0.06704094002778234</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>357699</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>339517</v>
+        <v>338981</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>375598</v>
+        <v>375979</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7363036514597409</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6988759039343604</v>
+        <v>0.6977739513778612</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7731481611967379</v>
+        <v>0.7739316441614817</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>435</v>
@@ -2477,19 +2477,19 @@
         <v>435882</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>411832</v>
+        <v>410689</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>459527</v>
+        <v>458657</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.659316925894548</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6229380367395758</v>
+        <v>0.6212100595072106</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6950818885960197</v>
+        <v>0.693765473201314</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>806</v>
@@ -2498,19 +2498,19 @@
         <v>793582</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>765685</v>
+        <v>760436</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>827225</v>
+        <v>825824</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6919265302617724</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6676030907698908</v>
+        <v>0.663026899412051</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.721259886112443</v>
+        <v>0.7200386839444622</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>66101</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>50424</v>
+        <v>52212</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>81779</v>
+        <v>82190</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1360658804153122</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1037952293986323</v>
+        <v>0.1074759263002007</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1683376713702039</v>
+        <v>0.1691834986203557</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>98</v>
@@ -2548,19 +2548,19 @@
         <v>103881</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86109</v>
+        <v>87415</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>123602</v>
+        <v>122872</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1571301965344198</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1302494766309294</v>
+        <v>0.1322240930925024</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1869600275403596</v>
+        <v>0.1858568755388481</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>167</v>
@@ -2569,19 +2569,19 @@
         <v>169982</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>145391</v>
+        <v>146472</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>193798</v>
+        <v>197502</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.148207891944019</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1267672635132857</v>
+        <v>0.1277098664982012</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1689731148916402</v>
+        <v>0.1722023504001982</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>26288</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17212</v>
+        <v>17732</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37508</v>
+        <v>37075</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05411138496470879</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0354301562229643</v>
+        <v>0.03649985449160877</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07720896785860201</v>
+        <v>0.07631742868344418</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>56</v>
@@ -2619,19 +2619,19 @@
         <v>61036</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>46245</v>
+        <v>46801</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>77320</v>
+        <v>78343</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09232318241387805</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0699509113778771</v>
+        <v>0.07079058874787321</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1169537987799948</v>
+        <v>0.1185016676249485</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>83</v>
@@ -2640,19 +2640,19 @@
         <v>87323</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>69937</v>
+        <v>69351</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>105726</v>
+        <v>108575</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07613764409113509</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06097860828838047</v>
+        <v>0.06046755915862148</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09218296765386817</v>
+        <v>0.09466699106631167</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>19334</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12121</v>
+        <v>11343</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28552</v>
+        <v>28556</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03979856136705189</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02495139904418667</v>
+        <v>0.02334984716026123</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05877345098072749</v>
+        <v>0.05878190594315991</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>23</v>
@@ -2690,19 +2690,19 @@
         <v>24144</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15361</v>
+        <v>15685</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36180</v>
+        <v>35540</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0365209743274769</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02323450051284654</v>
+        <v>0.02372575224764725</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05472650231225921</v>
+        <v>0.05375759838125251</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>44</v>
@@ -2711,19 +2711,19 @@
         <v>43479</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32224</v>
+        <v>32124</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>58735</v>
+        <v>57240</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03790927621790053</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02809609279443748</v>
+        <v>0.02800909105196141</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05121156098473004</v>
+        <v>0.04990753241752285</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>16382</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9792</v>
+        <v>10175</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>24402</v>
+        <v>27125</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03372052179318627</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02015582180178181</v>
+        <v>0.02094409529156461</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0502301597869212</v>
+        <v>0.05583561187037653</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>33</v>
@@ -2761,19 +2761,19 @@
         <v>36169</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25127</v>
+        <v>24944</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49877</v>
+        <v>48764</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05470872082967721</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03800642558326849</v>
+        <v>0.03772995546698402</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07544445704424423</v>
+        <v>0.07376089905877689</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -2782,19 +2782,19 @@
         <v>52550</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>38753</v>
+        <v>39996</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68685</v>
+        <v>67990</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04581865748517295</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03378905678642621</v>
+        <v>0.03487262703555993</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0598863736217766</v>
+        <v>0.05928046211760929</v>
       </c>
     </row>
     <row r="33">
@@ -3126,19 +3126,19 @@
         <v>89624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79771</v>
+        <v>77529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102113</v>
+        <v>100515</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6516550874842651</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5800151499097926</v>
+        <v>0.5637087645116572</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7424606150558869</v>
+        <v>0.7308452886255408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -3147,19 +3147,19 @@
         <v>112126</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97327</v>
+        <v>95985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127979</v>
+        <v>126482</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5199820675588874</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4513525226357375</v>
+        <v>0.4451278677450566</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5935007271710766</v>
+        <v>0.5865566113974697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>184</v>
@@ -3168,19 +3168,19 @@
         <v>201750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>182448</v>
+        <v>182203</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220321</v>
+        <v>220548</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5712592205738941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5166041176370576</v>
+        <v>0.5159127861928099</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6238445767942913</v>
+        <v>0.6244854771228794</v>
       </c>
     </row>
     <row r="5">
@@ -3197,19 +3197,19 @@
         <v>8322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4005</v>
+        <v>4128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15239</v>
+        <v>15970</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06050753917935912</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02911824285678825</v>
+        <v>0.03001248962302813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1108002309437162</v>
+        <v>0.1161164205322365</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -3218,19 +3218,19 @@
         <v>31983</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22492</v>
+        <v>22924</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43385</v>
+        <v>44095</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1483186223911835</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1043057622260979</v>
+        <v>0.1063116419411105</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2011978554916684</v>
+        <v>0.2044921670022456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -3239,19 +3239,19 @@
         <v>40304</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29627</v>
+        <v>29713</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>53956</v>
+        <v>54342</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1141225330722175</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08389065692971753</v>
+        <v>0.08413253252708661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1527785761255206</v>
+        <v>0.1538706057386941</v>
       </c>
     </row>
     <row r="6">
@@ -3268,19 +3268,19 @@
         <v>12726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6672</v>
+        <v>7188</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20491</v>
+        <v>20651</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09253149279831431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04851184946394183</v>
+        <v>0.05226073586864745</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1489875730741933</v>
+        <v>0.1501546258138292</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -3289,19 +3289,19 @@
         <v>20616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12869</v>
+        <v>12774</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31608</v>
+        <v>31720</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09560532892414501</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05968122614557439</v>
+        <v>0.05924040312225416</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1465800727652967</v>
+        <v>0.1471011673328366</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -3310,19 +3310,19 @@
         <v>33342</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23789</v>
+        <v>23362</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45482</v>
+        <v>46765</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09440829125115321</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06735959367093933</v>
+        <v>0.06615080172050014</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1287833567426834</v>
+        <v>0.1324162802920029</v>
       </c>
     </row>
     <row r="7">
@@ -3339,19 +3339,19 @@
         <v>12924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7354</v>
+        <v>7281</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21290</v>
+        <v>21277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09397128971496348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05346815248146534</v>
+        <v>0.05294127550803656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1547998534513634</v>
+        <v>0.1547081718772168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -3360,19 +3360,19 @@
         <v>26907</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18057</v>
+        <v>18467</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38831</v>
+        <v>37870</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1247804262903116</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08373682729224499</v>
+        <v>0.08564108203494696</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1800760027534453</v>
+        <v>0.1756199245795043</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -3381,19 +3381,19 @@
         <v>39831</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29315</v>
+        <v>28898</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53391</v>
+        <v>53074</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1127824876744154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08300513958379482</v>
+        <v>0.08182523049470677</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1511764061667773</v>
+        <v>0.1502812999614456</v>
       </c>
     </row>
     <row r="8">
@@ -3410,19 +3410,19 @@
         <v>13937</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7539</v>
+        <v>7155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23279</v>
+        <v>22483</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1013345908230979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05481321384067789</v>
+        <v>0.05202645623944031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1692630904847568</v>
+        <v>0.1634710920117594</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -3431,19 +3431,19 @@
         <v>24003</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16081</v>
+        <v>15363</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35900</v>
+        <v>35075</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1113135548354725</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07457381064283117</v>
+        <v>0.07124672695673476</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1664849751420797</v>
+        <v>0.1626604951290303</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -3452,19 +3452,19 @@
         <v>37940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27785</v>
+        <v>26848</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51278</v>
+        <v>51131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1074274674283198</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07867455321389651</v>
+        <v>0.07602210663370677</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1451943092203146</v>
+        <v>0.1447777479639228</v>
       </c>
     </row>
     <row r="9">
@@ -3556,19 +3556,19 @@
         <v>129568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116873</v>
+        <v>115874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141639</v>
+        <v>140660</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7512485193482947</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6776418570778472</v>
+        <v>0.6718514154611273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8212375688114962</v>
+        <v>0.8155613551485605</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>147</v>
@@ -3577,19 +3577,19 @@
         <v>152055</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136026</v>
+        <v>135427</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>167423</v>
+        <v>167305</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6154398244185145</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5505616388188279</v>
+        <v>0.5481406128510121</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6776436759148772</v>
+        <v>0.6771641702600657</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>267</v>
@@ -3598,19 +3598,19 @@
         <v>281622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>259787</v>
+        <v>262046</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>300900</v>
+        <v>299959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6712702177590404</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6192244125200427</v>
+        <v>0.6246084840782975</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7172220324511207</v>
+        <v>0.7149779169320489</v>
       </c>
     </row>
     <row r="11">
@@ -3627,19 +3627,19 @@
         <v>8491</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4097</v>
+        <v>4225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16138</v>
+        <v>16017</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04923035257659716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02375208522350543</v>
+        <v>0.02449718394912492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09356906264430082</v>
+        <v>0.09287029420748601</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -3648,19 +3648,19 @@
         <v>28767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20601</v>
+        <v>19101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41285</v>
+        <v>39834</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1164336955169725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08338204798537163</v>
+        <v>0.0773117792376819</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1670992354111613</v>
+        <v>0.1612270959739847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -3669,19 +3669,19 @@
         <v>37258</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26903</v>
+        <v>26108</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51715</v>
+        <v>50636</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08880667891027168</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06412564361919644</v>
+        <v>0.06223069941507779</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1232665000792643</v>
+        <v>0.1206942065410134</v>
       </c>
     </row>
     <row r="12">
@@ -3698,19 +3698,19 @@
         <v>15255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8927</v>
+        <v>9288</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25218</v>
+        <v>25524</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08845164824146001</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05176058434265848</v>
+        <v>0.05385113073017366</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1462151286693718</v>
+        <v>0.147988509002022</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -3719,19 +3719,19 @@
         <v>16338</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9324</v>
+        <v>9383</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25596</v>
+        <v>26219</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06612776739437431</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03773781180022381</v>
+        <v>0.03797582463871375</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.103598880926078</v>
+        <v>0.1061191105692241</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -3740,19 +3740,19 @@
         <v>31593</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21591</v>
+        <v>22123</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44166</v>
+        <v>43905</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07530502257103476</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05146346801797112</v>
+        <v>0.05273128872764059</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1052743835548164</v>
+        <v>0.1046511900174564</v>
       </c>
     </row>
     <row r="13">
@@ -3769,19 +3769,19 @@
         <v>10648</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4325</v>
+        <v>4938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20319</v>
+        <v>20824</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0617392649678502</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0250772380816225</v>
+        <v>0.02863297110262589</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1178134702624219</v>
+        <v>0.1207423652296174</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -3790,19 +3790,19 @@
         <v>24356</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15873</v>
+        <v>16226</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35541</v>
+        <v>36536</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09857882358652958</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06424599255959412</v>
+        <v>0.06567301071678812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1438507376297946</v>
+        <v>0.1478791354356229</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -3811,19 +3811,19 @@
         <v>35004</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24331</v>
+        <v>24573</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48530</v>
+        <v>47411</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08343423325499243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05799507047894272</v>
+        <v>0.05857142807798884</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1156752981038258</v>
+        <v>0.1130081079372259</v>
       </c>
     </row>
     <row r="14">
@@ -3840,19 +3840,19 @@
         <v>8508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4149</v>
+        <v>3398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18814</v>
+        <v>16958</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04933021486579788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02405863275069808</v>
+        <v>0.01969946241218929</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1090878994262875</v>
+        <v>0.0983229120839883</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -3861,19 +3861,19 @@
         <v>25552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16746</v>
+        <v>16907</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36387</v>
+        <v>38185</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.103419889083609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06777883116260572</v>
+        <v>0.06842990065560943</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1472758214800507</v>
+        <v>0.1545529076731774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -3882,19 +3882,19 @@
         <v>34060</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23848</v>
+        <v>23667</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47234</v>
+        <v>47771</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08118384750466075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05684334792570783</v>
+        <v>0.05641170169393949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1125872946802358</v>
+        <v>0.1138651752367281</v>
       </c>
     </row>
     <row r="15">
@@ -3986,19 +3986,19 @@
         <v>125182</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>112394</v>
+        <v>111983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136555</v>
+        <v>135567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7530422017967475</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6761179678580784</v>
+        <v>0.6736442806188435</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.821459314489319</v>
+        <v>0.8155165395346047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>127</v>
@@ -4007,19 +4007,19 @@
         <v>133237</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>119754</v>
+        <v>119365</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145819</v>
+        <v>146590</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6936841929841719</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6234881207599815</v>
+        <v>0.6214615120582264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7591912343643681</v>
+        <v>0.7632068255034282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>241</v>
@@ -4028,19 +4028,19 @@
         <v>258419</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>240139</v>
+        <v>240820</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>275726</v>
+        <v>275834</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.721223166161149</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6702051486802942</v>
+        <v>0.6721069606904606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7695274327944291</v>
+        <v>0.7698291346266766</v>
       </c>
     </row>
     <row r="17">
@@ -4057,19 +4057,19 @@
         <v>11300</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6124</v>
+        <v>6157</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19356</v>
+        <v>20029</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06797525010868948</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0368367627056095</v>
+        <v>0.03704067557988583</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.116439609312684</v>
+        <v>0.120488850456238</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -4078,19 +4078,19 @@
         <v>20675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13596</v>
+        <v>13318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30539</v>
+        <v>31345</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.107643943796093</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07078592337911066</v>
+        <v>0.06933716332011948</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1589972713647598</v>
+        <v>0.1631926479647893</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -4099,19 +4099,19 @@
         <v>31975</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21752</v>
+        <v>22198</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44158</v>
+        <v>45087</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08923977031930885</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06070860159479251</v>
+        <v>0.06195251840343496</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1232402121727447</v>
+        <v>0.1258334842265843</v>
       </c>
     </row>
     <row r="18">
@@ -4128,19 +4128,19 @@
         <v>8735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4175</v>
+        <v>3598</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16433</v>
+        <v>16807</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05254722116107337</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02511534370089637</v>
+        <v>0.02164626565237717</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09885138537962879</v>
+        <v>0.1011058328013046</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -4149,19 +4149,19 @@
         <v>14648</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8269</v>
+        <v>8315</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23406</v>
+        <v>25471</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07626161655779948</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04305147159723496</v>
+        <v>0.04328949218317481</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1218606209618002</v>
+        <v>0.1326119164032608</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -4170,19 +4170,19 @@
         <v>23383</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15147</v>
+        <v>15036</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34500</v>
+        <v>34893</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06525939273319727</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04227443369555649</v>
+        <v>0.0419629132363481</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09628585706789089</v>
+        <v>0.09738367475449192</v>
       </c>
     </row>
     <row r="19">
@@ -4199,19 +4199,19 @@
         <v>10562</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5159</v>
+        <v>5304</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20201</v>
+        <v>19784</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06353530470229307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03103404592772987</v>
+        <v>0.03190521532267736</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1215216519107681</v>
+        <v>0.1190125982306361</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -4220,19 +4220,19 @@
         <v>10866</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5355</v>
+        <v>5152</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19473</v>
+        <v>19008</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05657068431264875</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02787959216551546</v>
+        <v>0.02682247318918712</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1013837372006779</v>
+        <v>0.09896395162414193</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -4241,19 +4241,19 @@
         <v>21427</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13279</v>
+        <v>12958</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32718</v>
+        <v>33025</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.059801899407883</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03706127383375561</v>
+        <v>0.03616557977748074</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09131427081148948</v>
+        <v>0.09216909511209417</v>
       </c>
     </row>
     <row r="20">
@@ -4270,19 +4270,19 @@
         <v>10456</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4199</v>
+        <v>5164</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19069</v>
+        <v>20095</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06290002223119651</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02526201564276581</v>
+        <v>0.03106526579151447</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1147126074817009</v>
+        <v>0.1208811472246118</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -4291,19 +4291,19 @@
         <v>12646</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7189</v>
+        <v>6354</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22585</v>
+        <v>22635</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06583956234928678</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03742841360374979</v>
+        <v>0.03307958685519572</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1175849528746156</v>
+        <v>0.117844538319831</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -4312,19 +4312,19 @@
         <v>23102</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14892</v>
+        <v>14320</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34903</v>
+        <v>34897</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06447577137846187</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04156276471374613</v>
+        <v>0.03996531944917328</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09741189924813363</v>
+        <v>0.09739305269125398</v>
       </c>
     </row>
     <row r="21">
@@ -4416,19 +4416,19 @@
         <v>61103</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52009</v>
+        <v>52565</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68445</v>
+        <v>68028</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7823942590410686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6659490655208313</v>
+        <v>0.6730727550282714</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8764096353012042</v>
+        <v>0.8710754915838094</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -4437,19 +4437,19 @@
         <v>56894</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46574</v>
+        <v>48413</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>64646</v>
+        <v>66509</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6689511359715246</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5476085883131773</v>
+        <v>0.5692326445128424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7600898455230646</v>
+        <v>0.7820023261272886</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -4458,19 +4458,19 @@
         <v>117996</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>105166</v>
+        <v>104222</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128403</v>
+        <v>129727</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7232552129300102</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6446136284860075</v>
+        <v>0.6388271195612795</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7870444098633962</v>
+        <v>0.7951584027703935</v>
       </c>
     </row>
     <row r="23">
@@ -4487,19 +4487,19 @@
         <v>4345</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12316</v>
+        <v>11532</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05564177029691917</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01302624627251666</v>
+        <v>0.01321815574023367</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.157697692879796</v>
+        <v>0.1476561583514741</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -4508,19 +4508,19 @@
         <v>10740</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5063</v>
+        <v>5363</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19496</v>
+        <v>18840</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1262824915705048</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05953457772387718</v>
+        <v>0.06305483630334531</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2292261737797452</v>
+        <v>0.221520353242383</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -4529,19 +4529,19 @@
         <v>15086</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8235</v>
+        <v>8155</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26323</v>
+        <v>27439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09246749194208227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05047444565288649</v>
+        <v>0.0499871791779608</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1613480202142084</v>
+        <v>0.1681864926642475</v>
       </c>
     </row>
     <row r="24">
@@ -4558,19 +4558,19 @@
         <v>5235</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2038</v>
+        <v>1958</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11495</v>
+        <v>11685</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0670342565171492</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02609332181713919</v>
+        <v>0.02507263242580834</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1471876874965732</v>
+        <v>0.1496155938950325</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -4579,19 +4579,19 @@
         <v>5443</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2088</v>
+        <v>1192</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11904</v>
+        <v>11205</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06399208503232355</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02455105220067043</v>
+        <v>0.01401988359129784</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1399637593788234</v>
+        <v>0.1317509295293755</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -4600,19 +4600,19 @@
         <v>10678</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5443</v>
+        <v>5355</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19536</v>
+        <v>18545</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06544834178868601</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03336581019774196</v>
+        <v>0.03282457574818221</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.119746527451433</v>
+        <v>0.113669856069243</v>
       </c>
     </row>
     <row r="25">
@@ -4629,19 +4629,19 @@
         <v>6381</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2118</v>
+        <v>2222</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13901</v>
+        <v>14973</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08171225214845769</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02712193683945657</v>
+        <v>0.02845560833771194</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1779980019796403</v>
+        <v>0.1917218114635954</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -4650,19 +4650,19 @@
         <v>5386</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12174</v>
+        <v>12085</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06333044285327097</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02477810532254193</v>
+        <v>0.02470756687115049</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1431397887661477</v>
+        <v>0.1420872467828973</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -4671,19 +4671,19 @@
         <v>11768</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6226</v>
+        <v>6300</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21640</v>
+        <v>20398</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07212962926133638</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03816319047722598</v>
+        <v>0.03861761924195809</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1326429148179042</v>
+        <v>0.1250320798286004</v>
       </c>
     </row>
     <row r="26">
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -4721,19 +4721,19 @@
         <v>6587</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3062</v>
+        <v>3067</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13270</v>
+        <v>13662</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07744384457237605</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0360038288558845</v>
+        <v>0.03605980127929826</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1560282001592681</v>
+        <v>0.1606299864055215</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -4742,19 +4742,19 @@
         <v>7619</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3277</v>
+        <v>3292</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14310</v>
+        <v>15249</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04669932407788512</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02008780527477822</v>
+        <v>0.02017773464463777</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08771470416850291</v>
+        <v>0.09346852263981557</v>
       </c>
     </row>
     <row r="27">
@@ -4846,19 +4846,19 @@
         <v>405476</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>384384</v>
+        <v>382480</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>428135</v>
+        <v>427509</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7314647168199676</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6934160796268222</v>
+        <v>0.6899809820734104</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7723407070797903</v>
+        <v>0.7712116236950943</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>429</v>
@@ -4867,19 +4867,19 @@
         <v>454311</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>427858</v>
+        <v>428082</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>480212</v>
+        <v>481392</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6140823062754014</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5783260623961466</v>
+        <v>0.5786291096764299</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6490917829393371</v>
+        <v>0.6506876201469881</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>796</v>
@@ -4888,19 +4888,19 @@
         <v>859787</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>823354</v>
+        <v>820088</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>894859</v>
+        <v>892307</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6643614920435971</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6362098657277429</v>
+        <v>0.6336859230560989</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.691462246003507</v>
+        <v>0.6894901943636857</v>
       </c>
     </row>
     <row r="29">
@@ -4917,19 +4917,19 @@
         <v>32458</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22711</v>
+        <v>22549</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46398</v>
+        <v>47169</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0585528013401056</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04097020707142537</v>
+        <v>0.04067786506281237</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08369981726560477</v>
+        <v>0.08509153198120317</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>85</v>
@@ -4938,19 +4938,19 @@
         <v>92165</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>75455</v>
+        <v>75569</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111969</v>
+        <v>111547</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1245773538472075</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1019915337333931</v>
+        <v>0.1021448654936395</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1513462084391834</v>
+        <v>0.1507752998110028</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>115</v>
@@ -4959,19 +4959,19 @@
         <v>124623</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>104550</v>
+        <v>104110</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>147921</v>
+        <v>148513</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09629661974602631</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08078641923525612</v>
+        <v>0.08044648118463923</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1142996069021431</v>
+        <v>0.1147567584551798</v>
       </c>
     </row>
     <row r="30">
@@ -4988,19 +4988,19 @@
         <v>41952</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>30599</v>
+        <v>29972</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>57050</v>
+        <v>56794</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07567942253566791</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05519992148706992</v>
+        <v>0.05406811992306963</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1029161776363191</v>
+        <v>0.102455230146347</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>53</v>
@@ -5009,19 +5009,19 @@
         <v>57044</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>43712</v>
+        <v>42621</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>73713</v>
+        <v>73122</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07710492704095916</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05908499479273024</v>
+        <v>0.05760952422966038</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09963637630137123</v>
+        <v>0.09883708439805371</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>92</v>
@@ -5030,19 +5030,19 @@
         <v>98996</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>82144</v>
+        <v>81338</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>122426</v>
+        <v>120342</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07649433124979736</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0634733676337067</v>
+        <v>0.06284992554661331</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0945994747656589</v>
+        <v>0.09298851278201306</v>
       </c>
     </row>
     <row r="31">
@@ -5059,19 +5059,19 @@
         <v>40516</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>27947</v>
+        <v>29166</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>55147</v>
+        <v>55164</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07308865435632393</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05041527689531235</v>
+        <v>0.05261459342874681</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09948277650005105</v>
+        <v>0.09951423132330328</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>61</v>
@@ -5080,19 +5080,19 @@
         <v>67514</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>52603</v>
+        <v>52099</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>86286</v>
+        <v>84208</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09125751312359925</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07110292064966495</v>
+        <v>0.07042058033386546</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1166314429011967</v>
+        <v>0.1138223319086996</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>95</v>
@@ -5101,19 +5101,19 @@
         <v>108030</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>87371</v>
+        <v>88669</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>129772</v>
+        <v>131243</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08347512544798481</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06751207419745613</v>
+        <v>0.06851527108628516</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1002751875318008</v>
+        <v>0.1014118504599633</v>
       </c>
     </row>
     <row r="32">
@@ -5130,19 +5130,19 @@
         <v>33933</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>22924</v>
+        <v>23314</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>47904</v>
+        <v>48075</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06121440494793498</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04135497853055669</v>
+        <v>0.04205756083372734</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08641810561850261</v>
+        <v>0.08672496656937516</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>63</v>
@@ -5151,19 +5151,19 @@
         <v>68787</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>55103</v>
+        <v>53809</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>86899</v>
+        <v>85112</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09297789971283266</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07448179350119941</v>
+        <v>0.07273236600210184</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1174589284415923</v>
+        <v>0.1150434453735357</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>92</v>
@@ -5172,19 +5172,19 @@
         <v>102720</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>82917</v>
+        <v>84047</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>125270</v>
+        <v>125276</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07937243151259446</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06407053927775944</v>
+        <v>0.06494345022097667</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09679700823899588</v>
+        <v>0.09680175499245489</v>
       </c>
     </row>
     <row r="33">
@@ -5516,19 +5516,19 @@
         <v>126100</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>114887</v>
+        <v>115001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>135206</v>
+        <v>135722</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.757563785319334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6902005739916455</v>
+        <v>0.690887107204632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8122699971380622</v>
+        <v>0.8153735031295984</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>133</v>
@@ -5537,19 +5537,19 @@
         <v>151032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>133805</v>
+        <v>133495</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167073</v>
+        <v>167302</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5800495750357763</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5138856430162262</v>
+        <v>0.5126973338035533</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6416571053482801</v>
+        <v>0.6425341588648997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>264</v>
@@ -5558,19 +5558,19 @@
         <v>277132</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>256488</v>
+        <v>255694</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>297709</v>
+        <v>296433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6492758917025363</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6009109877191753</v>
+        <v>0.5990499942424919</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6974846714061126</v>
+        <v>0.6944961290411962</v>
       </c>
     </row>
     <row r="5">
@@ -5587,19 +5587,19 @@
         <v>7094</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2816</v>
+        <v>3428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13674</v>
+        <v>13346</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04261567340306167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01691482109234177</v>
+        <v>0.02059542835314086</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08214896035527511</v>
+        <v>0.0801793778551346</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -5608,19 +5608,19 @@
         <v>25622</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16018</v>
+        <v>16091</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38245</v>
+        <v>38197</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09840301260974214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06151956054401603</v>
+        <v>0.06179856809430856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1468843567113098</v>
+        <v>0.1466975068459155</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -5629,19 +5629,19 @@
         <v>32716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22624</v>
+        <v>23231</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46531</v>
+        <v>46880</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07664727821671177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05300392208130987</v>
+        <v>0.05442744064210324</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1090151335722108</v>
+        <v>0.1098319254172591</v>
       </c>
     </row>
     <row r="6">
@@ -5658,19 +5658,19 @@
         <v>13774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8551</v>
+        <v>8201</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21937</v>
+        <v>21459</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08275130993682929</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05137283875751988</v>
+        <v>0.04926881446415975</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1317890298026803</v>
+        <v>0.1289155761578054</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -5679,19 +5679,19 @@
         <v>37604</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26276</v>
+        <v>26048</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52620</v>
+        <v>50864</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1444217910177518</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1009165364790224</v>
+        <v>0.1000399409516799</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2020905669479451</v>
+        <v>0.1953454793903394</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -5700,19 +5700,19 @@
         <v>51379</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38600</v>
+        <v>38949</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65995</v>
+        <v>67191</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1203717713293009</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09043316984590653</v>
+        <v>0.09125244146432951</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1546165336349293</v>
+        <v>0.1574182847432511</v>
       </c>
     </row>
     <row r="7">
@@ -5729,19 +5729,19 @@
         <v>11744</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6535</v>
+        <v>6707</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19054</v>
+        <v>20135</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07055344948924343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03925788698686036</v>
+        <v>0.0402949046627621</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.114467954825874</v>
+        <v>0.1209669497291268</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -5750,19 +5750,19 @@
         <v>31853</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20844</v>
+        <v>21800</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44398</v>
+        <v>44714</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1223337120315884</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08005410276076876</v>
+        <v>0.08372432078936123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1705154377856027</v>
+        <v>0.1717287280958429</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -5771,19 +5771,19 @@
         <v>43597</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32087</v>
+        <v>31541</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57952</v>
+        <v>59218</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1021406421578107</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07517453659889288</v>
+        <v>0.07389525659291107</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1357727194805002</v>
+        <v>0.1387383794551419</v>
       </c>
     </row>
     <row r="8">
@@ -5800,19 +5800,19 @@
         <v>7743</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3524</v>
+        <v>3580</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14140</v>
+        <v>14219</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04651578185153157</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02117279085030526</v>
+        <v>0.02150718605791902</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08494588199635099</v>
+        <v>0.08542554277314271</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -5821,19 +5821,19 @@
         <v>14267</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7225</v>
+        <v>7616</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23571</v>
+        <v>24238</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05479190930514146</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02774755841891288</v>
+        <v>0.02925081640185001</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09052792120621181</v>
+        <v>0.09308914641916945</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -5842,19 +5842,19 @@
         <v>22009</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14227</v>
+        <v>13844</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33252</v>
+        <v>33702</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05156441659364031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03333107375427929</v>
+        <v>0.03243338118825408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07790318882444379</v>
+        <v>0.07895805304422072</v>
       </c>
     </row>
     <row r="9">
@@ -5946,19 +5946,19 @@
         <v>135430</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124847</v>
+        <v>126282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144411</v>
+        <v>145089</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7977564845717102</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7354194873376765</v>
+        <v>0.7438715558223852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8506639414099789</v>
+        <v>0.8546534148468321</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -5967,19 +5967,19 @@
         <v>144271</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128499</v>
+        <v>128077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158831</v>
+        <v>158402</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6533887001570788</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5819579475559705</v>
+        <v>0.5800472689551663</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7193269595725522</v>
+        <v>0.7173854301633967</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>270</v>
@@ -5988,19 +5988,19 @@
         <v>279701</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262027</v>
+        <v>260085</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>298002</v>
+        <v>297386</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7161392051705803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6708862865085105</v>
+        <v>0.6659138598515454</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7629952935012126</v>
+        <v>0.7614180775821655</v>
       </c>
     </row>
     <row r="11">
@@ -6017,19 +6017,19 @@
         <v>11346</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6011</v>
+        <v>6225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18177</v>
+        <v>18202</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06683390155503099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03540826232419116</v>
+        <v>0.03666658593824815</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1070747906346613</v>
+        <v>0.1072189406396576</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -6038,19 +6038,19 @@
         <v>29680</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19714</v>
+        <v>20082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42197</v>
+        <v>42477</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1344187002847081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08928450082803069</v>
+        <v>0.0909482405022386</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1911041286919961</v>
+        <v>0.1923755534908815</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -6059,19 +6059,19 @@
         <v>41026</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29486</v>
+        <v>29359</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53879</v>
+        <v>54975</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1050424771285586</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07549609941441435</v>
+        <v>0.07516873449077273</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.13795077067429</v>
+        <v>0.1407558944300907</v>
       </c>
     </row>
     <row r="12">
@@ -6088,19 +6088,19 @@
         <v>11496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6661</v>
+        <v>6182</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19808</v>
+        <v>18764</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06771707952925417</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03923580311597628</v>
+        <v>0.0364168742316768</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1166781008254731</v>
+        <v>0.1105296949291779</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -6109,19 +6109,19 @@
         <v>22561</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13267</v>
+        <v>13951</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34839</v>
+        <v>34147</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1021773870872874</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06008347986373097</v>
+        <v>0.06318140951667418</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1577811726794148</v>
+        <v>0.154646209018204</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -6130,19 +6130,19 @@
         <v>34057</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23657</v>
+        <v>24317</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>47621</v>
+        <v>48625</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08719896436676794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06057108615802159</v>
+        <v>0.06226124741083718</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1219276103671026</v>
+        <v>0.1244986548480634</v>
       </c>
     </row>
     <row r="13">
@@ -6159,19 +6159,19 @@
         <v>8888</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4587</v>
+        <v>4392</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15942</v>
+        <v>15387</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05235789372650685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02701975581078628</v>
+        <v>0.02586958131369733</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0939052656107829</v>
+        <v>0.09063573447324552</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -6180,19 +6180,19 @@
         <v>12169</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6186</v>
+        <v>6002</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20643</v>
+        <v>20761</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05510971875559031</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0280145267785023</v>
+        <v>0.02718247761006983</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09349081256300135</v>
+        <v>0.09402522888081609</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -6201,19 +6201,19 @@
         <v>21057</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13278</v>
+        <v>13242</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32107</v>
+        <v>32270</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05391361803974196</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03399615751489037</v>
+        <v>0.03390501541026353</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08220618034442616</v>
+        <v>0.08262416560199939</v>
       </c>
     </row>
     <row r="14">
@@ -6230,19 +6230,19 @@
         <v>2603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7806</v>
+        <v>7174</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01533464061749781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004767007959940527</v>
+        <v>0.004597903765922508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04597894231047113</v>
+        <v>0.04225784535213197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -6251,19 +6251,19 @@
         <v>12123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6035</v>
+        <v>5828</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21907</v>
+        <v>22310</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05490549371533538</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02733343582570665</v>
+        <v>0.02639298836138041</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09921509571416276</v>
+        <v>0.1010392100597772</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -6272,19 +6272,19 @@
         <v>14727</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7651</v>
+        <v>7693</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24621</v>
+        <v>25609</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03770573529435118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01958865958373163</v>
+        <v>0.0196970326304506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06304020406384959</v>
+        <v>0.065569835134661</v>
       </c>
     </row>
     <row r="15">
@@ -6376,19 +6376,19 @@
         <v>126534</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116088</v>
+        <v>115654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135257</v>
+        <v>134443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.81230675202072</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7452506512155211</v>
+        <v>0.7424590355138737</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8683036000745399</v>
+        <v>0.8630838310894052</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>102</v>
@@ -6397,19 +6397,19 @@
         <v>118329</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103442</v>
+        <v>101760</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133328</v>
+        <v>131839</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6427210027655246</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.561858544780708</v>
+        <v>0.5527229369547411</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7241928374562835</v>
+        <v>0.7161019323041595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -6418,19 +6418,19 @@
         <v>244863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>226618</v>
+        <v>226012</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>262375</v>
+        <v>261424</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.720444918509581</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6667659259190462</v>
+        <v>0.6649814933117411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7719714160227689</v>
+        <v>0.7691738108887095</v>
       </c>
     </row>
     <row r="17">
@@ -6447,19 +6447,19 @@
         <v>10482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5406</v>
+        <v>5800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16696</v>
+        <v>17298</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06729231565780504</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03470406840206636</v>
+        <v>0.03723373479423721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1071825872736725</v>
+        <v>0.1110461239643786</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -6468,19 +6468,19 @@
         <v>23941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15012</v>
+        <v>15253</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36654</v>
+        <v>36475</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1300394682444646</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08154214511286985</v>
+        <v>0.08284987043819467</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1990938733422014</v>
+        <v>0.1981215528202878</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -6489,19 +6489,19 @@
         <v>34423</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24119</v>
+        <v>23888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48051</v>
+        <v>46736</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1012814244687104</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0709652604926609</v>
+        <v>0.07028563892404881</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.141378162745998</v>
+        <v>0.1375072754648242</v>
       </c>
     </row>
     <row r="18">
@@ -6518,19 +6518,19 @@
         <v>11065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5713</v>
+        <v>5972</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18761</v>
+        <v>19117</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07103664600812455</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03667831148382109</v>
+        <v>0.03834133836426674</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1204383017106494</v>
+        <v>0.1227281004289808</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -6539,19 +6539,19 @@
         <v>14590</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7764</v>
+        <v>8414</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24660</v>
+        <v>24146</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07924977078901758</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04216963892610678</v>
+        <v>0.04570457102873335</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1339437475358606</v>
+        <v>0.1311522122212991</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -6560,19 +6560,19 @@
         <v>25656</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16595</v>
+        <v>16248</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37228</v>
+        <v>36392</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07548556170146659</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04882784652545229</v>
+        <v>0.04780449411560818</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1095339802753963</v>
+        <v>0.1070730228360265</v>
       </c>
     </row>
     <row r="19">
@@ -6589,19 +6589,19 @@
         <v>3867</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1759</v>
+        <v>970</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9580</v>
+        <v>10316</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02482268975971233</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01129139278715644</v>
+        <v>0.006224710817630512</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06150165812073481</v>
+        <v>0.06622337669364206</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -6610,19 +6610,19 @@
         <v>17763</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9808</v>
+        <v>9540</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29010</v>
+        <v>28445</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09648393241689095</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05327260078071331</v>
+        <v>0.05181526707223597</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1575727076857396</v>
+        <v>0.1545015488720155</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -6631,19 +6631,19 @@
         <v>21630</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12686</v>
+        <v>13616</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34638</v>
+        <v>35074</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06364041572481664</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03732421460227422</v>
+        <v>0.04006044723464018</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1019130317110019</v>
+        <v>0.1031969710200338</v>
       </c>
     </row>
     <row r="20">
@@ -6660,19 +6660,19 @@
         <v>3823</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8550</v>
+        <v>9535</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02454159655363807</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006085260228078839</v>
+        <v>0.006154060706185587</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05488771276315742</v>
+        <v>0.06120952582829071</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -6681,19 +6681,19 @@
         <v>9483</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3997</v>
+        <v>3982</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18133</v>
+        <v>17987</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05150582578410234</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02171196430087942</v>
+        <v>0.02163032617495367</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09849029912904979</v>
+        <v>0.09770056705822736</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -6702,19 +6702,19 @@
         <v>13305</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6400</v>
+        <v>7098</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23082</v>
+        <v>22672</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03914767959542532</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01882893403430915</v>
+        <v>0.02088294035597183</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06791351463599032</v>
+        <v>0.06670642251587942</v>
       </c>
     </row>
     <row r="21">
@@ -6806,19 +6806,19 @@
         <v>70062</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61521</v>
+        <v>62225</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76197</v>
+        <v>76762</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.796656642437247</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6995376282122494</v>
+        <v>0.7075476482018382</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8664190629896362</v>
+        <v>0.8728451443764617</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -6827,19 +6827,19 @@
         <v>81818</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70544</v>
+        <v>71730</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90071</v>
+        <v>91264</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7679858993991486</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6621627806015121</v>
+        <v>0.6732981749218672</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8454492173072439</v>
+        <v>0.8566521659405514</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -6848,19 +6848,19 @@
         <v>151880</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138931</v>
+        <v>139350</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>163073</v>
+        <v>163616</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7809509241125082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7143701648543843</v>
+        <v>0.7165209952837868</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8385010855633673</v>
+        <v>0.8412967312618049</v>
       </c>
     </row>
     <row r="23">
@@ -6877,19 +6877,19 @@
         <v>4602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1646</v>
+        <v>1767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9514</v>
+        <v>10337</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0523310887342899</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0187111666464921</v>
+        <v>0.02008922285896607</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1081842558152337</v>
+        <v>0.117539744100683</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -6898,19 +6898,19 @@
         <v>14915</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8603</v>
+        <v>8123</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24107</v>
+        <v>23502</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1400004444719345</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08075515959129384</v>
+        <v>0.07624569078820366</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2262842574004055</v>
+        <v>0.2206045819684928</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -6919,19 +6919,19 @@
         <v>19517</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12069</v>
+        <v>11319</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29329</v>
+        <v>29400</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.10035601104262</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06205877283950463</v>
+        <v>0.05820256680992461</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1508074943710863</v>
+        <v>0.1511726504544995</v>
       </c>
     </row>
     <row r="24">
@@ -6948,19 +6948,19 @@
         <v>3872</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9123</v>
+        <v>8788</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04402995474624154</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01149152519214173</v>
+        <v>0.01172477266965014</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1037349181283312</v>
+        <v>0.09992716136305267</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -6969,19 +6969,19 @@
         <v>3535</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9566</v>
+        <v>10109</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03318205908853163</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009450723444114561</v>
+        <v>0.009740857637020369</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08979046069641308</v>
+        <v>0.0948897940126795</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -6990,19 +6990,19 @@
         <v>7407</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3060</v>
+        <v>3129</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>14391</v>
+        <v>15018</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03808752090733643</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01573620684939213</v>
+        <v>0.01609060336307034</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07399587836748382</v>
+        <v>0.07721841216322564</v>
       </c>
     </row>
     <row r="25">
@@ -7019,19 +7019,19 @@
         <v>7513</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3974</v>
+        <v>3420</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13991</v>
+        <v>12804</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0854261288114895</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04518800513850266</v>
+        <v>0.03889182227939985</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1590877150128369</v>
+        <v>0.1455934597716707</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6141</v>
+        <v>5482</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01136509614766048</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05763948406370585</v>
+        <v>0.05145724737315513</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -7061,19 +7061,19 @@
         <v>8724</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4229</v>
+        <v>4245</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15504</v>
+        <v>15603</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04485579143614787</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02174459465667957</v>
+        <v>0.02182690496426134</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07971910500813338</v>
+        <v>0.08022962714405019</v>
       </c>
     </row>
     <row r="26">
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6463</v>
+        <v>6165</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02155618527073207</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0734888797950297</v>
+        <v>0.07010054596316484</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -7111,19 +7111,19 @@
         <v>5057</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1322</v>
+        <v>1272</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11461</v>
+        <v>11422</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04746650089272476</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0124125235102729</v>
+        <v>0.01194396206890998</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1075785166900622</v>
+        <v>0.1072104194409496</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -7132,19 +7132,19 @@
         <v>6953</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3125</v>
+        <v>3133</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14900</v>
+        <v>14682</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03574975250138755</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01606624606521093</v>
+        <v>0.016108012020349</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07661556439427017</v>
+        <v>0.0754932624690927</v>
       </c>
     </row>
     <row r="27">
@@ -7236,19 +7236,19 @@
         <v>458126</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>437811</v>
+        <v>439611</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>475294</v>
+        <v>476388</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7899617055787982</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.754932397561605</v>
+        <v>0.7580361786500911</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.819565266934895</v>
+        <v>0.8214528311580613</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>428</v>
@@ -7257,19 +7257,19 @@
         <v>495450</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>465066</v>
+        <v>465846</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>524913</v>
+        <v>522197</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6419209178910714</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6025540214291137</v>
+        <v>0.6035653025268127</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.680093753909885</v>
+        <v>0.676575812233251</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>908</v>
@@ -7278,19 +7278,19 @@
         <v>953576</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>922624</v>
+        <v>915490</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>989003</v>
+        <v>986517</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7054336614634762</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.682536726139735</v>
+        <v>0.6772586602695116</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7316418518028054</v>
+        <v>0.7298030013556008</v>
       </c>
     </row>
     <row r="29">
@@ -7307,19 +7307,19 @@
         <v>33524</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23512</v>
+        <v>24428</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>45170</v>
+        <v>45243</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05780654285200908</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04054187194156732</v>
+        <v>0.04212166974315435</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07788756347440286</v>
+        <v>0.07801366889337061</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>78</v>
@@ -7328,19 +7328,19 @@
         <v>94158</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>76051</v>
+        <v>76236</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>115376</v>
+        <v>115584</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1219945497005519</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09853438593037522</v>
+        <v>0.09877411452332263</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1494853230206789</v>
+        <v>0.1497542123592417</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>116</v>
@@ -7349,19 +7349,19 @@
         <v>127682</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>108130</v>
+        <v>107556</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>151688</v>
+        <v>152067</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09445648750113517</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07999236849166481</v>
+        <v>0.07956767020245356</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1122150885812641</v>
+        <v>0.1124957891290674</v>
       </c>
     </row>
     <row r="30">
@@ -7378,19 +7378,19 @@
         <v>40208</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>30414</v>
+        <v>29485</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52188</v>
+        <v>52769</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06933180705094794</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05244429923106371</v>
+        <v>0.05084176951216351</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08998965491291767</v>
+        <v>0.09099223074279429</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>64</v>
@@ -7399,19 +7399,19 @@
         <v>78291</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61486</v>
+        <v>60722</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99180</v>
+        <v>98249</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1014361470522235</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0796636219420255</v>
+        <v>0.07867286697798956</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1285002105979216</v>
+        <v>0.1272939458926368</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>108</v>
@@ -7420,19 +7420,19 @@
         <v>118499</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>98111</v>
+        <v>97164</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>139635</v>
+        <v>139736</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0876626813343607</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07258005461460998</v>
+        <v>0.0718800436591992</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1032988787914188</v>
+        <v>0.1033735578595989</v>
       </c>
     </row>
     <row r="31">
@@ -7449,19 +7449,19 @@
         <v>32012</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22256</v>
+        <v>22556</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43680</v>
+        <v>43807</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05519912423646735</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03837710093417374</v>
+        <v>0.03889385942831613</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07531843040988347</v>
+        <v>0.07553752082487469</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>49</v>
@@ -7470,19 +7470,19 @@
         <v>62995</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>47209</v>
+        <v>47096</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>82191</v>
+        <v>81270</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0816189596122406</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06116614101996856</v>
+        <v>0.06101846694822135</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1064896223618188</v>
+        <v>0.1052959207610082</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>85</v>
@@ -7491,19 +7491,19 @@
         <v>95007</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>76756</v>
+        <v>76748</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>117855</v>
+        <v>116958</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07028427100611026</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05678266791739043</v>
+        <v>0.05677665158659757</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08718671480707603</v>
+        <v>0.08652256080016778</v>
       </c>
     </row>
     <row r="32">
@@ -7520,19 +7520,19 @@
         <v>16065</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9580</v>
+        <v>8940</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25053</v>
+        <v>23845</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02770082028177749</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01651982889214201</v>
+        <v>0.01541581904785235</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04319950672930289</v>
+        <v>0.04111717368143505</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -7541,19 +7541,19 @@
         <v>40929</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>28935</v>
+        <v>27466</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>57528</v>
+        <v>56685</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05302942574391253</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03748891164417281</v>
+        <v>0.03558608098040046</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07453569437071389</v>
+        <v>0.0734427165077894</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>49</v>
@@ -7562,19 +7562,19 @@
         <v>56994</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42714</v>
+        <v>43200</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>74352</v>
+        <v>74206</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04216289869491763</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03159882759139566</v>
+        <v>0.03195814450314197</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05500368011074153</v>
+        <v>0.05489612783727753</v>
       </c>
     </row>
     <row r="33">
@@ -7906,19 +7906,19 @@
         <v>38826</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32496</v>
+        <v>31908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45051</v>
+        <v>45264</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5903424936848598</v>
+        <v>0.5903424936848596</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.494103291248044</v>
+        <v>0.4851583270407573</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.68499205990493</v>
+        <v>0.6882326528528142</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -7927,19 +7927,19 @@
         <v>53132</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45373</v>
+        <v>45239</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62280</v>
+        <v>61697</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3756418237981751</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3207879454241503</v>
+        <v>0.3198358411166775</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4403158315091599</v>
+        <v>0.4361939001031729</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>152</v>
@@ -7948,19 +7948,19 @@
         <v>91958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80778</v>
+        <v>81576</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102485</v>
+        <v>103017</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4437872043866235</v>
+        <v>0.4437872043866234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3898343654806315</v>
+        <v>0.3936825006372739</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4945911097619451</v>
+        <v>0.4971567657768559</v>
       </c>
     </row>
     <row r="5">
@@ -7977,19 +7977,19 @@
         <v>6809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3642</v>
+        <v>3245</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11664</v>
+        <v>12161</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1035310092461554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05538261512698923</v>
+        <v>0.04933526131376131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.177344882871647</v>
+        <v>0.184904261197024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -7998,19 +7998,19 @@
         <v>25574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19416</v>
+        <v>19591</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32253</v>
+        <v>33535</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1808074081712779</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1372742381910506</v>
+        <v>0.1385083885658833</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2280270814211736</v>
+        <v>0.237093994807091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -8019,19 +8019,19 @@
         <v>32383</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25077</v>
+        <v>25493</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41685</v>
+        <v>41895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1562800994393743</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1210223500642262</v>
+        <v>0.123026593457477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2011724377753109</v>
+        <v>0.2021846786982534</v>
       </c>
     </row>
     <row r="6">
@@ -8048,19 +8048,19 @@
         <v>6450</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3191</v>
+        <v>3326</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11251</v>
+        <v>11113</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0980700960800478</v>
+        <v>0.09807009608004778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04851144504609926</v>
+        <v>0.05057228762087358</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1710637036826981</v>
+        <v>0.1689772558867538</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -8069,19 +8069,19 @@
         <v>20698</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14623</v>
+        <v>15482</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27165</v>
+        <v>28194</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1463370458794946</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1033813544220378</v>
+        <v>0.1094604037756626</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1920571948892938</v>
+        <v>0.1993305338319931</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -8090,19 +8090,19 @@
         <v>27148</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20552</v>
+        <v>20709</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35363</v>
+        <v>35296</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1310172536046834</v>
+        <v>0.1310172536046833</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09918289918873535</v>
+        <v>0.09994308218240779</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1706633258634541</v>
+        <v>0.1703383638052258</v>
       </c>
     </row>
     <row r="7">
@@ -8119,19 +8119,19 @@
         <v>10672</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6147</v>
+        <v>6349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16460</v>
+        <v>16184</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.16226353620553</v>
+        <v>0.1622635362055299</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09345969747572563</v>
+        <v>0.09653837063057132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2502711245210829</v>
+        <v>0.2460722538621817</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -8140,19 +8140,19 @@
         <v>28412</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21337</v>
+        <v>22439</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36381</v>
+        <v>37144</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2008701605090383</v>
+        <v>0.2008701605090384</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1508490348907837</v>
+        <v>0.1586460423838972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2572137939188039</v>
+        <v>0.2626080464647891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -8161,19 +8161,19 @@
         <v>39084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30674</v>
+        <v>30979</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48515</v>
+        <v>48370</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1886165280085607</v>
+        <v>0.1886165280085606</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1480325515352495</v>
+        <v>0.1495055167300549</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2341298066464808</v>
+        <v>0.2334301446780038</v>
       </c>
     </row>
     <row r="8">
@@ -8190,19 +8190,19 @@
         <v>3012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1020</v>
+        <v>966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6955</v>
+        <v>6806</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04579286478340727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01551182262626329</v>
+        <v>0.01468368320632473</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1057551636788334</v>
+        <v>0.103483748409489</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -8211,19 +8211,19 @@
         <v>13627</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9604</v>
+        <v>9584</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20521</v>
+        <v>18992</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09634356164201391</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06790294934170622</v>
+        <v>0.06775784912482183</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1450848721958166</v>
+        <v>0.1342717172002416</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -8232,19 +8232,19 @@
         <v>16639</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11397</v>
+        <v>11016</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22757</v>
+        <v>23099</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08029891456075827</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05499924048504511</v>
+        <v>0.05316390188378511</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1098244284874296</v>
+        <v>0.1114740448971554</v>
       </c>
     </row>
     <row r="9">
@@ -8336,19 +8336,19 @@
         <v>143542</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132910</v>
+        <v>132803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153628</v>
+        <v>153060</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.720882501823305</v>
+        <v>0.7208825018233052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6674849340724435</v>
+        <v>0.6669510985395273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7715334748656388</v>
+        <v>0.768682338034808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>315</v>
@@ -8357,19 +8357,19 @@
         <v>170041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157178</v>
+        <v>158071</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>183405</v>
+        <v>184217</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5634818801413926</v>
+        <v>0.5634818801413927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5208573112974587</v>
+        <v>0.5238164933832923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6077676961635904</v>
+        <v>0.6104594892586392</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>518</v>
@@ -8378,19 +8378,19 @@
         <v>313583</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>298420</v>
+        <v>296652</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>330711</v>
+        <v>329533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6260539539549022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5957827543991457</v>
+        <v>0.5922513817673839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6602500011185353</v>
+        <v>0.6578969157897648</v>
       </c>
     </row>
     <row r="11">
@@ -8407,19 +8407,19 @@
         <v>15894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10496</v>
+        <v>10243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22815</v>
+        <v>23241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07982079551357381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0527107757036681</v>
+        <v>0.05144286677170615</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1145787945046873</v>
+        <v>0.1167189348262674</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>73</v>
@@ -8428,19 +8428,19 @@
         <v>38958</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31711</v>
+        <v>30310</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48467</v>
+        <v>47781</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1290975695769279</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1050844205268274</v>
+        <v>0.1004406370088691</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.160610663046427</v>
+        <v>0.15833675918166</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>97</v>
@@ -8449,19 +8449,19 @@
         <v>54851</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44755</v>
+        <v>45510</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>65415</v>
+        <v>66330</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1095083842799669</v>
+        <v>0.109508384279967</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08935121199096993</v>
+        <v>0.09085898024627936</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1305981757104072</v>
+        <v>0.1324255798987474</v>
       </c>
     </row>
     <row r="12">
@@ -8478,19 +8478,19 @@
         <v>7810</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4372</v>
+        <v>4315</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12677</v>
+        <v>12924</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03922394663446569</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02195527321212198</v>
+        <v>0.02167066441881037</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06366272066568254</v>
+        <v>0.06490596725395305</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>52</v>
@@ -8499,19 +8499,19 @@
         <v>27577</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21442</v>
+        <v>21121</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36294</v>
+        <v>36235</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09138530925639272</v>
+        <v>0.09138530925639275</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07105410857470101</v>
+        <v>0.06998983422970229</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1202726079016478</v>
+        <v>0.1200757835359222</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>66</v>
@@ -8520,19 +8520,19 @@
         <v>35387</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27845</v>
+        <v>27785</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44362</v>
+        <v>44999</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07064940238819563</v>
+        <v>0.07064940238819564</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05559183752559513</v>
+        <v>0.05547168234292495</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08856613723871883</v>
+        <v>0.08983864096114856</v>
       </c>
     </row>
     <row r="13">
@@ -8549,19 +8549,19 @@
         <v>21165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14232</v>
+        <v>14795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29056</v>
+        <v>29324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1062949108542771</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07147420831485513</v>
+        <v>0.07430046839463091</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1459241341486224</v>
+        <v>0.1472693660649669</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -8570,19 +8570,19 @@
         <v>40405</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31751</v>
+        <v>31675</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49647</v>
+        <v>49748</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1338930657634815</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1052167544918986</v>
+        <v>0.1049634154633008</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1645191818204909</v>
+        <v>0.1648562832905538</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -8591,19 +8591,19 @@
         <v>61570</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49948</v>
+        <v>50617</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72647</v>
+        <v>73133</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1229218652202891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0997196889513212</v>
+        <v>0.1010546678600786</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1450362884412152</v>
+        <v>0.1460067558215064</v>
       </c>
     </row>
     <row r="14">
@@ -8620,19 +8620,19 @@
         <v>10708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6497</v>
+        <v>6518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16796</v>
+        <v>17099</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05377784517437827</v>
+        <v>0.05377784517437828</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03262778219789055</v>
+        <v>0.03273653879028302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08435062111022383</v>
+        <v>0.08587399769014514</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -8641,19 +8641,19 @@
         <v>24788</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17926</v>
+        <v>18899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31909</v>
+        <v>32440</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08214217526180541</v>
+        <v>0.08214217526180542</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05940365139690616</v>
+        <v>0.06262699970080929</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1057393754481283</v>
+        <v>0.1074990875190057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>66</v>
@@ -8662,19 +8662,19 @@
         <v>35496</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27934</v>
+        <v>27697</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45586</v>
+        <v>45029</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07086639415664606</v>
+        <v>0.07086639415664607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05576860753615358</v>
+        <v>0.05529516076725724</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0910098033844529</v>
+        <v>0.08989901344651051</v>
       </c>
     </row>
     <row r="15">
@@ -8766,19 +8766,19 @@
         <v>190029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>179967</v>
+        <v>179398</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>199303</v>
+        <v>198990</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8286832541913517</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7848039571530382</v>
+        <v>0.782326667100256</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8691269973493367</v>
+        <v>0.8677622723172607</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>284</v>
@@ -8787,19 +8787,19 @@
         <v>148256</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137918</v>
+        <v>136967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>160353</v>
+        <v>158438</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6295432029043418</v>
+        <v>0.629543202904342</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5856444781707416</v>
+        <v>0.5816091451819728</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6809137333362577</v>
+        <v>0.6727831997570315</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>548</v>
@@ -8808,19 +8808,19 @@
         <v>338284</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>322409</v>
+        <v>323268</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>352452</v>
+        <v>353593</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7277888595091156</v>
+        <v>0.7277888595091159</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6936350445982949</v>
+        <v>0.6954821452519392</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.75826987101277</v>
+        <v>0.7607238546841945</v>
       </c>
     </row>
     <row r="17">
@@ -8837,19 +8837,19 @@
         <v>12652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8001</v>
+        <v>7506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19113</v>
+        <v>19386</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05517315670482324</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03488960313936979</v>
+        <v>0.03273314036645083</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08335054650847087</v>
+        <v>0.08454061793924907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -8858,19 +8858,19 @@
         <v>28246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21088</v>
+        <v>21751</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35814</v>
+        <v>36133</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1199432541758506</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08954574625188456</v>
+        <v>0.09236078686038657</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1520793850826352</v>
+        <v>0.153432737367132</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -8879,19 +8879,19 @@
         <v>40898</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32547</v>
+        <v>32166</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51151</v>
+        <v>51989</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08798895511209727</v>
+        <v>0.08798895511209728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07002217557819598</v>
+        <v>0.06920304838737688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1100467772789112</v>
+        <v>0.1118506788455987</v>
       </c>
     </row>
     <row r="18">
@@ -8908,19 +8908,19 @@
         <v>10409</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5970</v>
+        <v>6608</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15503</v>
+        <v>16482</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04539110201610757</v>
+        <v>0.04539110201610758</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02603573250770993</v>
+        <v>0.02881522889387907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0676063808120881</v>
+        <v>0.07187349977173874</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -8929,19 +8929,19 @@
         <v>24060</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17472</v>
+        <v>17351</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31976</v>
+        <v>31334</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1021667682334827</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07419414939543094</v>
+        <v>0.07367748820539839</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1357798105987214</v>
+        <v>0.1330539663484623</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>63</v>
@@ -8950,19 +8950,19 @@
         <v>34469</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26575</v>
+        <v>26528</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43510</v>
+        <v>43443</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07415651830811597</v>
+        <v>0.074156518308116</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05717388192162685</v>
+        <v>0.05707301130923592</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09360726322991139</v>
+        <v>0.09346456570767132</v>
       </c>
     </row>
     <row r="19">
@@ -8982,16 +8982,16 @@
         <v>6022</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14918</v>
+        <v>15570</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04291363222527244</v>
+        <v>0.04291363222527245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02626227627296592</v>
+        <v>0.0262629962527824</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06505527774725589</v>
+        <v>0.06789990111844943</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -9000,19 +9000,19 @@
         <v>14586</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9900</v>
+        <v>9509</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20381</v>
+        <v>20310</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06193707134140908</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04203763339938176</v>
+        <v>0.04037819668889608</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08654349503024125</v>
+        <v>0.08624302115541387</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -9021,19 +9021,19 @@
         <v>24427</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18296</v>
+        <v>18539</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32548</v>
+        <v>32325</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05255186603104117</v>
+        <v>0.05255186603104118</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03936296302813435</v>
+        <v>0.03988443754776898</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07002487650421521</v>
+        <v>0.06954361389337493</v>
       </c>
     </row>
     <row r="20">
@@ -9050,19 +9050,19 @@
         <v>6384</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2905</v>
+        <v>2976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11855</v>
+        <v>11654</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02783885486244502</v>
+        <v>0.02783885486244503</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0126671321311294</v>
+        <v>0.01297625936726583</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05169729384767171</v>
+        <v>0.05082117819644337</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -9071,19 +9071,19 @@
         <v>20349</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14604</v>
+        <v>14556</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27702</v>
+        <v>28064</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08640970334491571</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06201533423040417</v>
+        <v>0.0618099717687527</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.117631746169017</v>
+        <v>0.1191685277768914</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -9092,19 +9092,19 @@
         <v>26733</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19413</v>
+        <v>19657</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35299</v>
+        <v>34995</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05751380103962984</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04176504170338756</v>
+        <v>0.04229038666917022</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07594234019265489</v>
+        <v>0.07528870831377218</v>
       </c>
     </row>
     <row r="21">
@@ -9196,19 +9196,19 @@
         <v>157437</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145824</v>
+        <v>146705</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>167728</v>
+        <v>167589</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7484360472048698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6932318366325002</v>
+        <v>0.6974218230522197</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7973624825241936</v>
+        <v>0.7966987652998138</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>288</v>
@@ -9217,19 +9217,19 @@
         <v>148879</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>139208</v>
+        <v>139457</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158185</v>
+        <v>159077</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7213140709381924</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6744624519524629</v>
+        <v>0.6756679758716964</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.766405157003712</v>
+        <v>0.7707269300778274</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>512</v>
@@ -9238,19 +9238,19 @@
         <v>306315</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>292793</v>
+        <v>293396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>319987</v>
+        <v>322075</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7350037518315747</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7025571223536522</v>
+        <v>0.7040046907163804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7678101318117349</v>
+        <v>0.7728204509160386</v>
       </c>
     </row>
     <row r="23">
@@ -9267,19 +9267,19 @@
         <v>26564</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19575</v>
+        <v>19590</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35908</v>
+        <v>36005</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1262801616647728</v>
+        <v>0.1262801616647729</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09305765569637045</v>
+        <v>0.09312877005750179</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1707038417595121</v>
+        <v>0.1711618548133203</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>39</v>
@@ -9288,19 +9288,19 @@
         <v>22143</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16105</v>
+        <v>16750</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29588</v>
+        <v>29614</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1072817449454713</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07802747120385017</v>
+        <v>0.08115408581427835</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1433514593114757</v>
+        <v>0.143479654995635</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>76</v>
@@ -9309,19 +9309,19 @@
         <v>48706</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>38398</v>
+        <v>38771</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>58581</v>
+        <v>60058</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.116871100079827</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09213556747045507</v>
+        <v>0.0930313168357875</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1405652290625624</v>
+        <v>0.1441099152383239</v>
       </c>
     </row>
     <row r="24">
@@ -9338,19 +9338,19 @@
         <v>11120</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6700</v>
+        <v>6677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18682</v>
+        <v>18178</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05286422960525828</v>
+        <v>0.05286422960525829</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03185134848555553</v>
+        <v>0.03174299718512309</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08881158107205904</v>
+        <v>0.08641481953956313</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -9359,19 +9359,19 @@
         <v>11356</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7313</v>
+        <v>7326</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16724</v>
+        <v>16810</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05502035609830725</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03543317364328509</v>
+        <v>0.03549608792410999</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08102549400690452</v>
+        <v>0.08144228110787916</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -9380,19 +9380,19 @@
         <v>22476</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15944</v>
+        <v>16496</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30367</v>
+        <v>31007</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05393206211244929</v>
+        <v>0.05393206211244928</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03825723919565842</v>
+        <v>0.03958236476905449</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0728649412684778</v>
+        <v>0.07440183653279146</v>
       </c>
     </row>
     <row r="25">
@@ -9409,19 +9409,19 @@
         <v>9774</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5202</v>
+        <v>5357</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16048</v>
+        <v>16395</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04646451364441736</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02472911537973389</v>
+        <v>0.02546749940388158</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07628832540775929</v>
+        <v>0.07794094041645114</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -9430,19 +9430,19 @@
         <v>10919</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6934</v>
+        <v>6819</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16431</v>
+        <v>16040</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05290168928808005</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03359685767305517</v>
+        <v>0.0330381382263885</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07960778843633141</v>
+        <v>0.07771436821798566</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -9451,19 +9451,19 @@
         <v>20693</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14678</v>
+        <v>14377</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28747</v>
+        <v>28214</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04965255730927715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03521884832668983</v>
+        <v>0.03449704668250526</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06897932432564594</v>
+        <v>0.0677002918517112</v>
       </c>
     </row>
     <row r="26">
@@ -9480,19 +9480,19 @@
         <v>5460</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2470</v>
+        <v>2325</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10443</v>
+        <v>10590</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02595504788068162</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01174047179968199</v>
+        <v>0.01105282257114595</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04964325056566622</v>
+        <v>0.05034182275880257</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -9501,19 +9501,19 @@
         <v>13103</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8559</v>
+        <v>8256</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20124</v>
+        <v>19822</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06348213872994884</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04146609491128256</v>
+        <v>0.03999826702873469</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09750167796909996</v>
+        <v>0.0960375547079578</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>33</v>
@@ -9522,19 +9522,19 @@
         <v>18562</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12612</v>
+        <v>12639</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26318</v>
+        <v>26827</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.04454052866687174</v>
+        <v>0.04454052866687175</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03026253051797212</v>
+        <v>0.03032787378084583</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0631503979120822</v>
+        <v>0.06437149322868191</v>
       </c>
     </row>
     <row r="27">
@@ -9626,19 +9626,19 @@
         <v>529834</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>507645</v>
+        <v>508943</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>547234</v>
+        <v>546650</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7520096671697117</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7205166811333866</v>
+        <v>0.7223589115813892</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7767069026315073</v>
+        <v>0.775877402803515</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>986</v>
@@ -9647,19 +9647,19 @@
         <v>520307</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>497942</v>
+        <v>499309</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>541196</v>
+        <v>543026</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5878460334693756</v>
+        <v>0.5878460334693755</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5625785315578862</v>
+        <v>0.5641228975331055</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6114469037226862</v>
+        <v>0.6135144418813072</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1730</v>
@@ -9668,19 +9668,19 @@
         <v>1050140</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1018265</v>
+        <v>1019846</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1079900</v>
+        <v>1079340</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.6606051783556888</v>
+        <v>0.6606051783556887</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6405538660742114</v>
+        <v>0.6415480969495854</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6793256817439574</v>
+        <v>0.678973375773827</v>
       </c>
     </row>
     <row r="29">
@@ -9697,19 +9697,19 @@
         <v>61919</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51049</v>
+        <v>49751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>76719</v>
+        <v>74524</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.08788293025118359</v>
+        <v>0.08788293025118357</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07245513010001618</v>
+        <v>0.07061316075601175</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1088893078979564</v>
+        <v>0.1057742156632089</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>214</v>
@@ -9718,19 +9718,19 @@
         <v>114921</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>101062</v>
+        <v>100611</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>130490</v>
+        <v>130208</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1298380913357821</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1141804755949264</v>
+        <v>0.1136711021043685</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1474287232267107</v>
+        <v>0.1471100550581757</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>303</v>
@@ -9739,19 +9739,19 @@
         <v>176839</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>158475</v>
+        <v>158768</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>197047</v>
+        <v>196930</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1112430981861107</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09969115210150645</v>
+        <v>0.09987504621802581</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1239552621991638</v>
+        <v>0.1238817682272923</v>
       </c>
     </row>
     <row r="30">
@@ -9768,19 +9768,19 @@
         <v>35789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27753</v>
+        <v>27187</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45151</v>
+        <v>46019</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05079679076643738</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0393900552993634</v>
+        <v>0.03858685768040541</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06408451527882054</v>
+        <v>0.06531689168589594</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>155</v>
@@ -9789,19 +9789,19 @@
         <v>83692</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>70713</v>
+        <v>70950</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>96456</v>
+        <v>96162</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09455540498651076</v>
+        <v>0.09455540498651073</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07989236722133589</v>
+        <v>0.08016017779752609</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1089763913126711</v>
+        <v>0.1086439611873443</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>214</v>
@@ -9810,19 +9810,19 @@
         <v>119481</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>103689</v>
+        <v>103618</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>135564</v>
+        <v>137580</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.07516110138651629</v>
+        <v>0.07516110138651627</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06522688856887122</v>
+        <v>0.06518236552789487</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08527862021136555</v>
+        <v>0.0865468331623318</v>
       </c>
     </row>
     <row r="31">
@@ -9839,19 +9839,19 @@
         <v>51452</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>40279</v>
+        <v>40938</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>63510</v>
+        <v>64141</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07302742515073579</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05716969920955507</v>
+        <v>0.05810467298926437</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09014148207196823</v>
+        <v>0.09103691642402237</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>180</v>
@@ -9860,19 +9860,19 @@
         <v>94321</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>81709</v>
+        <v>82041</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>109831</v>
+        <v>109741</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1065647667886251</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09231538336852657</v>
+        <v>0.09268995765980663</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.124087862116503</v>
+        <v>0.1239859429402219</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>258</v>
@@ -9881,19 +9881,19 @@
         <v>145773</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>127938</v>
+        <v>129272</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>164537</v>
+        <v>165697</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09170064466650389</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08048142590103834</v>
+        <v>0.08132029720558209</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.103504258049797</v>
+        <v>0.1042338790962811</v>
       </c>
     </row>
     <row r="32">
@@ -9910,19 +9910,19 @@
         <v>25564</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>17953</v>
+        <v>18386</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>34175</v>
+        <v>34634</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03628318666193157</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02548070020233217</v>
+        <v>0.02609516768661714</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04850624929297602</v>
+        <v>0.04915744503904527</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>135</v>
@@ -9931,19 +9931,19 @@
         <v>71867</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>60790</v>
+        <v>60360</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>85520</v>
+        <v>84280</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08119570341970656</v>
+        <v>0.08119570341970654</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06868117335002147</v>
+        <v>0.06819510561288711</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09662094477880193</v>
+        <v>0.09522038681356401</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>176</v>
@@ -9952,19 +9952,19 @@
         <v>97430</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>84087</v>
+        <v>83530</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>113029</v>
+        <v>111641</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.06128997740518043</v>
+        <v>0.06128997740518044</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05289614486547405</v>
+        <v>0.05254554656543514</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07110217635856049</v>
+        <v>0.07022899816772656</v>
       </c>
     </row>
     <row r="33">
